--- a/BackTest/2019-10-28 BackTest XRP.xlsx
+++ b/BackTest/2019-10-28 BackTest XRP.xlsx
@@ -7183,11 +7183,17 @@
         <v>-1555198.60368951</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>342</v>
+      </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7216,11 +7222,17 @@
         <v>-1593791.30838951</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>342</v>
+      </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7254,10 +7266,12 @@
       <c r="I208" t="n">
         <v>341</v>
       </c>
-      <c r="J208" t="n">
-        <v>341</v>
-      </c>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7291,12 +7305,10 @@
       <c r="I209" t="n">
         <v>341</v>
       </c>
-      <c r="J209" t="n">
-        <v>341</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L209" t="n">
@@ -7332,9 +7344,7 @@
       <c r="I210" t="n">
         <v>342</v>
       </c>
-      <c r="J210" t="n">
-        <v>341</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7373,9 +7383,7 @@
       <c r="I211" t="n">
         <v>342</v>
       </c>
-      <c r="J211" t="n">
-        <v>341</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7414,9 +7422,7 @@
       <c r="I212" t="n">
         <v>342</v>
       </c>
-      <c r="J212" t="n">
-        <v>341</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7455,9 +7461,7 @@
       <c r="I213" t="n">
         <v>342</v>
       </c>
-      <c r="J213" t="n">
-        <v>341</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7496,9 +7500,7 @@
       <c r="I214" t="n">
         <v>341</v>
       </c>
-      <c r="J214" t="n">
-        <v>341</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7537,9 +7539,7 @@
       <c r="I215" t="n">
         <v>342</v>
       </c>
-      <c r="J215" t="n">
-        <v>341</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7578,9 +7578,7 @@
       <c r="I216" t="n">
         <v>341</v>
       </c>
-      <c r="J216" t="n">
-        <v>341</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7619,9 +7617,7 @@
       <c r="I217" t="n">
         <v>342</v>
       </c>
-      <c r="J217" t="n">
-        <v>341</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7660,9 +7656,7 @@
       <c r="I218" t="n">
         <v>342</v>
       </c>
-      <c r="J218" t="n">
-        <v>341</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7696,12 +7690,12 @@
         <v>-1126259.16548951</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>341</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>342</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7735,12 +7729,12 @@
         <v>-1126259.16548951</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>341</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>342</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7777,9 +7771,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>341</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7816,9 +7808,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>341</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7852,12 +7842,12 @@
         <v>-1406115.78648951</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>341</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>342</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7896,9 +7886,7 @@
       <c r="I224" t="n">
         <v>342</v>
       </c>
-      <c r="J224" t="n">
-        <v>341</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7937,9 +7925,7 @@
       <c r="I225" t="n">
         <v>341</v>
       </c>
-      <c r="J225" t="n">
-        <v>341</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7978,9 +7964,7 @@
       <c r="I226" t="n">
         <v>342</v>
       </c>
-      <c r="J226" t="n">
-        <v>341</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8019,9 +8003,7 @@
       <c r="I227" t="n">
         <v>342</v>
       </c>
-      <c r="J227" t="n">
-        <v>341</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8060,9 +8042,7 @@
       <c r="I228" t="n">
         <v>342</v>
       </c>
-      <c r="J228" t="n">
-        <v>341</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8101,9 +8081,7 @@
       <c r="I229" t="n">
         <v>341</v>
       </c>
-      <c r="J229" t="n">
-        <v>341</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8142,9 +8120,7 @@
       <c r="I230" t="n">
         <v>342</v>
       </c>
-      <c r="J230" t="n">
-        <v>341</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8183,9 +8159,7 @@
       <c r="I231" t="n">
         <v>341</v>
       </c>
-      <c r="J231" t="n">
-        <v>341</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8224,9 +8198,7 @@
       <c r="I232" t="n">
         <v>342</v>
       </c>
-      <c r="J232" t="n">
-        <v>341</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8265,9 +8237,7 @@
       <c r="I233" t="n">
         <v>341</v>
       </c>
-      <c r="J233" t="n">
-        <v>341</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8306,9 +8276,7 @@
       <c r="I234" t="n">
         <v>342</v>
       </c>
-      <c r="J234" t="n">
-        <v>341</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8347,9 +8315,7 @@
       <c r="I235" t="n">
         <v>342</v>
       </c>
-      <c r="J235" t="n">
-        <v>341</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8388,9 +8354,7 @@
       <c r="I236" t="n">
         <v>342</v>
       </c>
-      <c r="J236" t="n">
-        <v>341</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8429,9 +8393,7 @@
       <c r="I237" t="n">
         <v>342</v>
       </c>
-      <c r="J237" t="n">
-        <v>341</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8470,9 +8432,7 @@
       <c r="I238" t="n">
         <v>342</v>
       </c>
-      <c r="J238" t="n">
-        <v>341</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8509,9 +8469,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>341</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8548,9 +8506,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>341</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8587,9 +8543,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>341</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8626,9 +8580,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>341</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8665,9 +8617,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>341</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8704,9 +8654,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>341</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8743,9 +8691,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>341</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8782,9 +8728,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>341</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8821,9 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>341</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8860,9 +8802,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>341</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8899,9 +8839,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>341</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8935,12 +8873,12 @@
         <v>-1292939.446519331</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>341</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>342</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8974,12 +8912,12 @@
         <v>-1270923.661219331</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>341</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>342</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9013,12 +8951,12 @@
         <v>-1270923.661219331</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>341</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>343</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9055,9 +8993,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>341</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9094,9 +9030,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>341</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9133,9 +9067,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>341</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9172,9 +9104,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>341</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9211,9 +9141,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>341</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9247,14 +9175,10 @@
         <v>-1620626.77391933</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>342</v>
-      </c>
-      <c r="J258" t="n">
-        <v>341</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9288,14 +9212,10 @@
         <v>-1620626.77391933</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>342</v>
-      </c>
-      <c r="J259" t="n">
-        <v>341</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9332,9 +9252,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>341</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9371,9 +9289,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>341</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9407,14 +9323,10 @@
         <v>-1620626.77391933</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>342</v>
-      </c>
-      <c r="J262" t="n">
-        <v>341</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9453,9 +9365,7 @@
       <c r="I263" t="n">
         <v>342</v>
       </c>
-      <c r="J263" t="n">
-        <v>341</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9494,9 +9404,7 @@
       <c r="I264" t="n">
         <v>342</v>
       </c>
-      <c r="J264" t="n">
-        <v>341</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9530,14 +9438,10 @@
         <v>-1620626.77391933</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>342</v>
-      </c>
-      <c r="J265" t="n">
-        <v>341</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9571,14 +9475,10 @@
         <v>-1620626.77391933</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>342</v>
-      </c>
-      <c r="J266" t="n">
-        <v>341</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9612,14 +9512,10 @@
         <v>-1620626.77391933</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>342</v>
-      </c>
-      <c r="J267" t="n">
-        <v>341</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9658,9 +9554,7 @@
       <c r="I268" t="n">
         <v>342</v>
       </c>
-      <c r="J268" t="n">
-        <v>341</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9694,14 +9588,10 @@
         <v>-1620626.77391933</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>342</v>
-      </c>
-      <c r="J269" t="n">
-        <v>341</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9735,14 +9625,10 @@
         <v>-1620626.77391933</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>342</v>
-      </c>
-      <c r="J270" t="n">
-        <v>341</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9781,9 +9667,7 @@
       <c r="I271" t="n">
         <v>342</v>
       </c>
-      <c r="J271" t="n">
-        <v>341</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9822,9 +9706,7 @@
       <c r="I272" t="n">
         <v>342</v>
       </c>
-      <c r="J272" t="n">
-        <v>341</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9863,9 +9745,7 @@
       <c r="I273" t="n">
         <v>342</v>
       </c>
-      <c r="J273" t="n">
-        <v>341</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9904,9 +9784,7 @@
       <c r="I274" t="n">
         <v>342</v>
       </c>
-      <c r="J274" t="n">
-        <v>341</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9945,9 +9823,7 @@
       <c r="I275" t="n">
         <v>343</v>
       </c>
-      <c r="J275" t="n">
-        <v>341</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9986,9 +9862,7 @@
       <c r="I276" t="n">
         <v>342</v>
       </c>
-      <c r="J276" t="n">
-        <v>341</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10027,9 +9901,7 @@
       <c r="I277" t="n">
         <v>342</v>
       </c>
-      <c r="J277" t="n">
-        <v>341</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10063,14 +9935,10 @@
         <v>-1376624.708511731</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>343</v>
-      </c>
-      <c r="J278" t="n">
-        <v>341</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10107,9 +9975,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>341</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10146,9 +10012,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>341</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10185,9 +10049,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>341</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10224,9 +10086,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>341</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10263,9 +10123,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>341</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10302,9 +10160,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>341</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10341,9 +10197,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>341</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10377,14 +10231,10 @@
         <v>-1287876.698511731</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>342</v>
-      </c>
-      <c r="J286" t="n">
-        <v>341</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10418,14 +10268,10 @@
         <v>-1287876.698511731</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>343</v>
-      </c>
-      <c r="J287" t="n">
-        <v>341</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10462,9 +10308,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>341</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10501,9 +10345,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>341</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10540,9 +10382,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>341</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10579,9 +10419,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>341</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10618,9 +10456,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>341</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10657,9 +10493,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>341</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10696,9 +10530,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>341</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10735,9 +10567,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>341</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10774,9 +10604,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>341</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10813,9 +10641,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>341</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10852,9 +10678,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>341</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10891,9 +10715,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>341</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10930,9 +10752,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>341</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10969,9 +10789,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>341</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11008,9 +10826,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>341</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11047,9 +10863,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>341</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11086,9 +10900,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>341</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11125,9 +10937,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>341</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11164,9 +10974,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>341</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11203,9 +11011,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>341</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11242,9 +11048,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>341</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11281,9 +11085,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>341</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11320,9 +11122,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>341</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11359,9 +11159,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>341</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11398,9 +11196,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>341</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11437,9 +11233,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>341</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11476,9 +11270,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>341</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11515,9 +11307,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>341</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11554,9 +11344,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>341</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11593,9 +11381,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>341</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11632,9 +11418,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>341</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11671,9 +11455,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>341</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11710,9 +11492,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>341</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11749,9 +11529,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>341</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11788,9 +11566,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>341</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11827,9 +11603,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>341</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11866,9 +11640,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>341</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11905,9 +11677,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>341</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11944,9 +11714,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>341</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11983,9 +11751,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>341</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12022,9 +11788,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>341</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12061,9 +11825,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>341</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12100,9 +11862,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>341</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12139,9 +11899,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>341</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12178,9 +11936,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>341</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12217,9 +11973,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>341</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12256,9 +12010,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>341</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12295,9 +12047,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>341</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12334,9 +12084,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>341</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12373,9 +12121,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>341</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12412,9 +12158,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>341</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12451,9 +12195,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>341</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12490,9 +12232,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>341</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12529,9 +12269,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>341</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12568,9 +12306,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>341</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12607,9 +12343,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>341</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12646,9 +12380,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>341</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12685,9 +12417,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>341</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12721,20 +12451,16 @@
         <v>1990224.73787685</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>341</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
+      <c r="L346" t="inlineStr"/>
       <c r="M346" t="inlineStr"/>
     </row>
     <row r="347">
@@ -12760,17 +12486,11 @@
         <v>551469.7682748497</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>341</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12799,17 +12519,11 @@
         <v>586357.9309484798</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>341</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12838,17 +12552,11 @@
         <v>410397.1534140998</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>341</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12880,14 +12588,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>341</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12919,14 +12621,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>341</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12958,14 +12654,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>341</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12997,14 +12687,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>341</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13036,14 +12720,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>341</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13072,17 +12750,11 @@
         <v>676789.3144140998</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>341</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13111,17 +12783,11 @@
         <v>653354.0514140998</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>341</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13150,17 +12816,11 @@
         <v>653354.0514140998</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>341</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13192,14 +12852,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>341</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13231,14 +12885,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>341</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13270,14 +12918,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>341</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13309,14 +12951,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>341</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13348,14 +12984,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>341</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13387,14 +13017,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>341</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13426,14 +13050,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>341</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13465,14 +13083,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>341</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13504,14 +13116,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>341</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13543,14 +13149,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>341</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13582,14 +13182,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>341</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13618,19 +13212,13 @@
         <v>563751.5923757697</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>341</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
-        <v>1.006730205278592</v>
+        <v>1</v>
       </c>
       <c r="M369" t="inlineStr"/>
     </row>
@@ -13657,7 +13245,7 @@
         <v>565998.8691757697</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13690,7 +13278,7 @@
         <v>563811.7739757698</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13723,7 +13311,7 @@
         <v>563811.7739757698</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -33028,7 +32616,7 @@
         <v>461869.6296217192</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -33061,7 +32649,7 @@
         <v>168900.5017341193</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -33193,7 +32781,7 @@
         <v>241421.7813341193</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -33226,7 +32814,7 @@
         <v>175113.2264341193</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -33259,7 +32847,7 @@
         <v>362984.1718203092</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -33391,7 +32979,7 @@
         <v>444548.3113812192</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -33424,7 +33012,7 @@
         <v>444548.3113812192</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -33457,7 +33045,7 @@
         <v>1088691.717081219</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -33490,7 +33078,7 @@
         <v>1060405.515781219</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -33523,7 +33111,7 @@
         <v>1060405.515781219</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -33556,7 +33144,7 @@
         <v>1018507.651572029</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -33589,7 +33177,7 @@
         <v>1018507.651572029</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -33655,7 +33243,7 @@
         <v>1018507.651572029</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -33688,7 +33276,7 @@
         <v>1018507.651572029</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -33721,7 +33309,7 @@
         <v>1018507.651572029</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -33754,7 +33342,7 @@
         <v>1024430.292500759</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -33787,7 +33375,7 @@
         <v>1024430.292500759</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -33820,7 +33408,7 @@
         <v>670320.3454007591</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -33853,7 +33441,7 @@
         <v>730010.0565007591</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -33886,7 +33474,7 @@
         <v>730010.0565007591</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -33919,7 +33507,7 @@
         <v>730010.0565007591</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -33952,7 +33540,7 @@
         <v>730010.0565007591</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -33985,7 +33573,7 @@
         <v>730010.0565007591</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -34018,7 +33606,7 @@
         <v>678105.3218007591</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
